--- a/doc/java帐票出力式样书.xlsx
+++ b/doc/java帐票出力式样书.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
